--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2386991.170312611</v>
+        <v>2401665.517776859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230136</v>
+        <v>3254445.780230138</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.05707201220442</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.09118670082915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>53.2467389542485</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>33.60023339142369</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>175.0426595591497</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.78398704713972</v>
+        <v>127.8428278594798</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,13 +1183,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.29171516770226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>7.83710273534405</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>122.5899586056058</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>96.26304617804587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>179.718878725348</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.4420262610253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>75.3004704185506</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>166.3497666348908</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>261.4878786624286</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>60.67891548562199</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.730981771231079</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>67.04483380554176</v>
       </c>
       <c r="Y17" t="n">
-        <v>348.3601217380584</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>27.58650141061207</v>
+        <v>135.6747425459854</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>305.0940449083128</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>255.8978055758793</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>99.90681807664346</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958672</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183518</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.24368767479851</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>232.9523833107307</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>245.5838119509407</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H23" t="n">
-        <v>309.9502217094637</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
-        <v>32.09335723214532</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I24" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S24" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T24" t="n">
         <v>193.9474046684609</v>
@@ -2532,19 +2532,19 @@
         <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>228.8445471989706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>9.985388145093548</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>314.9710775913208</v>
       </c>
       <c r="W26" t="n">
-        <v>295.9624060466577</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I27" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S27" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T27" t="n">
         <v>193.9474046684609</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6.818390702586879</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>228.5700414971885</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H29" t="n">
-        <v>309.9502217094637</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1150202768096</v>
+        <v>130.544625213364</v>
       </c>
       <c r="V29" t="n">
-        <v>207.1818634066889</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I30" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S30" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T30" t="n">
         <v>193.9474046684609</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>21.36460135875543</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.1476204707265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U31" t="n">
         <v>286.248492634809</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>204.6150072695396</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.4198296272988</v>
+        <v>245.5911707036632</v>
       </c>
       <c r="H32" t="n">
-        <v>309.9502217094637</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>210.475920285128</v>
       </c>
       <c r="U32" t="n">
-        <v>104.4951573061947</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I33" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S33" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T33" t="n">
         <v>193.9474046684609</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.420212896533</v>
+        <v>140.5122218294815</v>
       </c>
       <c r="U34" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>88.57472900613737</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>42.68320738246992</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,10 +3283,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H35" t="n">
-        <v>309.9502217094637</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I35" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.3258060921759</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>228.6705736539652</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I36" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S36" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T36" t="n">
         <v>193.9474046684609</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.1476204707265</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T37" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>34.03870588159884</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>189.3512903093601</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>215.1017111486262</v>
       </c>
       <c r="G38" t="n">
         <v>412.4198296272988</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>309.9502217094638</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921759</v>
       </c>
       <c r="T38" t="n">
         <v>210.475920285128</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>328.1448750783029</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543412</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906294</v>
+        <v>36.28891401906295</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.38804207738491</v>
+        <v>4.388042077384924</v>
       </c>
       <c r="S39" t="n">
-        <v>143.0320641923714</v>
+        <v>143.0320641923715</v>
       </c>
       <c r="T39" t="n">
         <v>193.9474046684609</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T40" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>245.2096207725235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>109.5514042628049</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>412.4198296272988</v>
@@ -3760,7 +3760,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.33258322459731</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.3258060921759</v>
       </c>
       <c r="T41" t="n">
         <v>210.475920285128</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>38.68478532989492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>219.4092797324168</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H42" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543412</v>
       </c>
       <c r="I42" t="n">
         <v>36.28891401906294</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.388042077384895</v>
+        <v>4.38804207738491</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>143.8016643219859</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>222.420212896533</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.801664321986</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>19.50505728326054</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>291.9911527635915</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>99.3325832245973</v>
+        <v>99.33258322459731</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.3258060921759</v>
       </c>
       <c r="T44" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1150202768096</v>
@@ -4073,7 +4073,7 @@
         <v>135.8010254569971</v>
       </c>
       <c r="H45" t="n">
-        <v>97.33822170543411</v>
+        <v>97.33822170543412</v>
       </c>
       <c r="I45" t="n">
         <v>36.28891401906294</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.388042077384895</v>
+        <v>4.38804207738491</v>
       </c>
       <c r="S45" t="n">
         <v>143.0320641923714</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.3546542937192</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.2642687712423</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>494.3473184075753</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>753.253405673024</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="V2" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.2332497330343</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.9050472788936</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C3" t="n">
-        <v>728.9050472788936</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>325.9198215750748</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>187.1889961576903</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>73.81986056526965</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4445,16 +4445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.7059962668447</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C5" t="n">
-        <v>533.7059962668447</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D5" t="n">
-        <v>533.7059962668447</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2572196227447</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>533.7059962668447</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>533.7059962668447</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>533.7059962668447</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>533.7059962668447</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4943568267907</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>565.0413275456638</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>416.1069178844125</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>256.869462878957</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y6" t="n">
-        <v>907.7096938468587</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>293.2822280683544</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>104.5536560184564</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C9" t="n">
-        <v>621.3887892094411</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D9" t="n">
-        <v>472.4543795481899</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E9" t="n">
-        <v>313.2169245427344</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>166.6823665696193</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>27.95154115223485</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2015.081949825207</v>
+        <v>2430.540465232542</v>
       </c>
       <c r="C11" t="n">
-        <v>1646.119432884796</v>
+        <v>2061.57794829213</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.853734278045</v>
+        <v>1703.31224968538</v>
       </c>
       <c r="E11" t="n">
-        <v>902.0654816798008</v>
+        <v>1317.523997087136</v>
       </c>
       <c r="F11" t="n">
-        <v>491.0795768901932</v>
+        <v>906.538092297528</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266206</v>
+        <v>489.4503105339555</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266206</v>
+        <v>171.2271953064649</v>
       </c>
       <c r="I11" t="n">
         <v>73.9917951266206</v>
       </c>
       <c r="J11" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403567</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604022</v>
+        <v>666.098807160402</v>
       </c>
       <c r="L11" t="n">
         <v>1218.912065406601</v>
@@ -5053,7 +5053,7 @@
         <v>1850.629876389912</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449759</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O11" t="n">
         <v>3025.098749216836</v>
@@ -5068,25 +5068,25 @@
         <v>3699.58975633103</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.58975633103</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.58975633103</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="U11" t="n">
-        <v>3518.055535396335</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="V11" t="n">
-        <v>3518.055535396335</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="W11" t="n">
-        <v>3165.286880126221</v>
+        <v>3190.606063557744</v>
       </c>
       <c r="X11" t="n">
-        <v>2791.821121865141</v>
+        <v>2817.140305296664</v>
       </c>
       <c r="Y11" t="n">
-        <v>2401.681789889329</v>
+        <v>2817.140305296664</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>522.0794512893258</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3090493050195</v>
+        <v>843.6704145912374</v>
       </c>
       <c r="M12" t="n">
-        <v>1299.854398772124</v>
+        <v>1484.215764058342</v>
       </c>
       <c r="N12" t="n">
-        <v>1973.060091024906</v>
+        <v>2157.421456311124</v>
       </c>
       <c r="O12" t="n">
-        <v>2522.496099777629</v>
+        <v>2316.933768979884</v>
       </c>
       <c r="P12" t="n">
-        <v>2631.185727304927</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.33685256765</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="C13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="D13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="E13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="F13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I13" t="n">
         <v>73.9917951266206</v>
@@ -5226,25 +5226,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585965</v>
+        <v>880.5506924839187</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585965</v>
+        <v>880.5506924839187</v>
       </c>
       <c r="U13" t="n">
-        <v>784.7743001636443</v>
+        <v>591.3985160615986</v>
       </c>
       <c r="V13" t="n">
-        <v>784.7743001636443</v>
+        <v>591.3985160615986</v>
       </c>
       <c r="W13" t="n">
-        <v>495.3571301266837</v>
+        <v>301.981346024638</v>
       </c>
       <c r="X13" t="n">
-        <v>419.2960488958245</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266206</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1397.061718429193</v>
+        <v>1717.687138661524</v>
       </c>
       <c r="C14" t="n">
-        <v>1229.031651121223</v>
+        <v>1348.724621721112</v>
       </c>
       <c r="D14" t="n">
-        <v>870.7659525144725</v>
+        <v>990.4589231143616</v>
       </c>
       <c r="E14" t="n">
-        <v>484.9776999162282</v>
+        <v>604.6706705161174</v>
       </c>
       <c r="F14" t="n">
-        <v>73.9917951266206</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="G14" t="n">
-        <v>73.9917951266206</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266206</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J14" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403567</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604022</v>
+        <v>666.0988071604019</v>
       </c>
       <c r="L14" t="n">
         <v>1218.912065406601</v>
@@ -5290,13 +5290,13 @@
         <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449759</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216836</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.41379555613</v>
+        <v>3454.413795556129</v>
       </c>
       <c r="Q14" t="n">
         <v>3699.58975633103</v>
@@ -5311,19 +5311,19 @@
         <v>3484.789894598741</v>
       </c>
       <c r="U14" t="n">
-        <v>3231.098191343892</v>
+        <v>3484.789894598741</v>
       </c>
       <c r="V14" t="n">
-        <v>2900.035304000321</v>
+        <v>3220.660724232651</v>
       </c>
       <c r="W14" t="n">
-        <v>2547.266648730207</v>
+        <v>2867.892068962537</v>
       </c>
       <c r="X14" t="n">
-        <v>2173.800890469127</v>
+        <v>2494.426310701457</v>
       </c>
       <c r="Y14" t="n">
-        <v>1783.661558493315</v>
+        <v>2104.286978725645</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835162</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893258</v>
+        <v>157.3616934996477</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155444</v>
+        <v>661.723233365766</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.938327510049</v>
+        <v>1302.26858283287</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273624</v>
+        <v>1975.474275085653</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026346</v>
+        <v>2524.910283838375</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.33685256765</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>428.4021485807716</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="C16" t="n">
-        <v>428.4021485807716</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="D16" t="n">
-        <v>367.110314756911</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="E16" t="n">
-        <v>367.110314756911</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="F16" t="n">
-        <v>367.110314756911</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="G16" t="n">
-        <v>198.5034697522943</v>
+        <v>228.2464382268555</v>
       </c>
       <c r="H16" t="n">
-        <v>198.5034697522943</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="K16" t="n">
         <v>175.0397247222303</v>
@@ -5463,25 +5463,25 @@
         <v>943.4485153053672</v>
       </c>
       <c r="S16" t="n">
-        <v>943.4485153053672</v>
+        <v>940.6899478596793</v>
       </c>
       <c r="T16" t="n">
-        <v>717.8193186177322</v>
+        <v>940.6899478596793</v>
       </c>
       <c r="U16" t="n">
-        <v>717.8193186177322</v>
+        <v>651.537771437359</v>
       </c>
       <c r="V16" t="n">
-        <v>717.8193186177322</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="W16" t="n">
-        <v>428.4021485807716</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="X16" t="n">
-        <v>428.4021485807716</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.4021485807716</v>
+        <v>396.8532832314721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.12200129077</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C17" t="n">
-        <v>1281.159484350359</v>
+        <v>1646.119432884796</v>
       </c>
       <c r="D17" t="n">
-        <v>922.893785743608</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>922.893785743608</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F17" t="n">
-        <v>511.9078809540004</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540004</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403567</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604019</v>
+        <v>666.0988071604022</v>
       </c>
       <c r="L17" t="n">
         <v>1218.912065406601</v>
@@ -5527,13 +5527,13 @@
         <v>1850.629876389912</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449758</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216835</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556129</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q17" t="n">
         <v>3699.58975633103</v>
@@ -5542,25 +5542,25 @@
         <v>3699.58975633103</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.58975633103</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.58975633103</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="U17" t="n">
-        <v>3445.898053076181</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="V17" t="n">
-        <v>3114.83516573261</v>
+        <v>3212.311831484287</v>
       </c>
       <c r="W17" t="n">
-        <v>2762.066510462495</v>
+        <v>2859.543176214173</v>
       </c>
       <c r="X17" t="n">
-        <v>2388.600752201416</v>
+        <v>2791.821121865141</v>
       </c>
       <c r="Y17" t="n">
-        <v>2036.721841354892</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J18" t="n">
         <v>192.6510469835162</v>
@@ -5603,16 +5603,16 @@
         <v>1026.440991155444</v>
       </c>
       <c r="M18" t="n">
-        <v>1666.986340622548</v>
+        <v>1253.562877620959</v>
       </c>
       <c r="N18" t="n">
-        <v>1865.643082275213</v>
+        <v>1452.219619273624</v>
       </c>
       <c r="O18" t="n">
-        <v>2415.079091027935</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.33685256765</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662059</v>
+        <v>393.0446174668632</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662059</v>
+        <v>224.1084345389563</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K19" t="n">
         <v>175.0397247222303</v>
@@ -5700,25 +5700,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S19" t="n">
-        <v>866.4861918383699</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T19" t="n">
-        <v>838.6210388983577</v>
+        <v>936.8812820950702</v>
       </c>
       <c r="U19" t="n">
-        <v>549.4688624760375</v>
+        <v>647.7291056727501</v>
       </c>
       <c r="V19" t="n">
-        <v>294.7843742701507</v>
+        <v>393.0446174668632</v>
       </c>
       <c r="W19" t="n">
-        <v>294.7843742701507</v>
+        <v>393.0446174668632</v>
       </c>
       <c r="X19" t="n">
-        <v>294.7843742701507</v>
+        <v>393.0446174668632</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662059</v>
+        <v>393.0446174668632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2333.305065052698</v>
+        <v>2255.692615392143</v>
       </c>
       <c r="C20" t="n">
-        <v>1964.342548112286</v>
+        <v>1886.730098451731</v>
       </c>
       <c r="D20" t="n">
-        <v>1606.076849505535</v>
+        <v>1528.464399844981</v>
       </c>
       <c r="E20" t="n">
         <v>1220.288596907291</v>
       </c>
       <c r="F20" t="n">
-        <v>809.3026921176836</v>
+        <v>809.3026921176837</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H20" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604015</v>
+        <v>666.0988071604022</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M20" t="n">
         <v>1850.629876389912</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449758</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216835</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556129</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q20" t="n">
         <v>3699.58975633103</v>
@@ -5791,13 +5791,13 @@
         <v>3368.526868987459</v>
       </c>
       <c r="W20" t="n">
-        <v>3368.526868987459</v>
+        <v>3015.758213717345</v>
       </c>
       <c r="X20" t="n">
-        <v>3110.044237092631</v>
+        <v>2642.292455456265</v>
       </c>
       <c r="Y20" t="n">
-        <v>2719.904905116819</v>
+        <v>2642.292455456265</v>
       </c>
     </row>
     <row r="21">
@@ -5828,10 +5828,10 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835161</v>
+        <v>192.6510469835162</v>
       </c>
       <c r="K21" t="n">
         <v>522.0794512893258</v>
@@ -5840,16 +5840,16 @@
         <v>1026.440991155444</v>
       </c>
       <c r="M21" t="n">
-        <v>1666.986340622548</v>
+        <v>1253.562877620959</v>
       </c>
       <c r="N21" t="n">
-        <v>1975.474275085653</v>
+        <v>1452.219619273624</v>
       </c>
       <c r="O21" t="n">
-        <v>2524.910283838375</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.33685256765</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>541.0074713315971</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="C22" t="n">
-        <v>372.0712884036902</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="D22" t="n">
-        <v>368.7948362069241</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="E22" t="n">
-        <v>220.8817426245309</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662059</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K22" t="n">
         <v>175.0397247222303</v>
@@ -5919,43 +5919,43 @@
         <v>359.8727196230485</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422862</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783903</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669891</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165605</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585964</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R22" t="n">
-        <v>943.448515305367</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S22" t="n">
-        <v>943.448515305367</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T22" t="n">
-        <v>943.448515305367</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U22" t="n">
-        <v>943.448515305367</v>
+        <v>784.7743001636443</v>
       </c>
       <c r="V22" t="n">
-        <v>943.448515305367</v>
+        <v>530.0898119577574</v>
       </c>
       <c r="W22" t="n">
-        <v>943.448515305367</v>
+        <v>294.7843742701507</v>
       </c>
       <c r="X22" t="n">
-        <v>943.448515305367</v>
+        <v>294.7843742701507</v>
       </c>
       <c r="Y22" t="n">
-        <v>722.6559361618368</v>
+        <v>73.9917951266206</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2081.852984933252</v>
+        <v>1860.618981857833</v>
       </c>
       <c r="C23" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="D23" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F23" t="n">
-        <v>916.1163106049883</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G23" t="n">
-        <v>499.5306241127672</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H23" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="I23" t="n">
         <v>86.11364943189737</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826238</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885281</v>
+        <v>782.5847574885279</v>
       </c>
       <c r="L23" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N23" t="n">
         <v>2846.297482930777</v>
@@ -6022,19 +6022,19 @@
         <v>3948.306990405673</v>
       </c>
       <c r="U23" t="n">
-        <v>3915.88945784795</v>
+        <v>3694.655454772532</v>
       </c>
       <c r="V23" t="n">
-        <v>3584.82657050438</v>
+        <v>3363.592567428961</v>
       </c>
       <c r="W23" t="n">
-        <v>3232.057915234265</v>
+        <v>3010.823912158847</v>
       </c>
       <c r="X23" t="n">
-        <v>2858.592156973185</v>
+        <v>2637.358153897767</v>
       </c>
       <c r="Y23" t="n">
-        <v>2468.452824997374</v>
+        <v>2247.218821921955</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869302</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9434958564821</v>
+        <v>597.970475231038</v>
       </c>
       <c r="L24" t="n">
-        <v>409.3423852995833</v>
+        <v>1159.501306524564</v>
       </c>
       <c r="M24" t="n">
-        <v>1064.494518601629</v>
+        <v>1405.71250947368</v>
       </c>
       <c r="N24" t="n">
-        <v>1806.179794984374</v>
+        <v>1672.848835256308</v>
       </c>
       <c r="O24" t="n">
-        <v>2418.26124464332</v>
+        <v>1895.006588831292</v>
       </c>
       <c r="P24" t="n">
-        <v>2577.229361417492</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q24" t="n">
         <v>2633.576141175236</v>
@@ -6156,10 +6156,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M25" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841302</v>
@@ -6177,19 +6177,19 @@
         <v>1085.761019183554</v>
       </c>
       <c r="T25" t="n">
-        <v>861.0941374698848</v>
+        <v>861.0941374698846</v>
       </c>
       <c r="U25" t="n">
-        <v>571.9542459195727</v>
+        <v>861.0941374698846</v>
       </c>
       <c r="V25" t="n">
-        <v>317.2697577136859</v>
+        <v>606.4096492639977</v>
       </c>
       <c r="W25" t="n">
-        <v>86.11364943189737</v>
+        <v>316.9924792270371</v>
       </c>
       <c r="X25" t="n">
-        <v>86.11364943189737</v>
+        <v>306.9062285754275</v>
       </c>
       <c r="Y25" t="n">
         <v>86.11364943189737</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2127.037651510241</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C26" t="n">
-        <v>1758.075134569829</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.809435963079</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E26" t="n">
-        <v>1014.021183364834</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F26" t="n">
-        <v>603.0352785752268</v>
+        <v>815.7803679538798</v>
       </c>
       <c r="G26" t="n">
-        <v>186.4495920830058</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H26" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="I26" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J26" t="n">
-        <v>316.5202242826235</v>
+        <v>316.5202242826239</v>
       </c>
       <c r="K26" t="n">
-        <v>782.5847574885279</v>
+        <v>782.5847574885281</v>
       </c>
       <c r="L26" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M26" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N26" t="n">
-        <v>2846.297482930777</v>
+        <v>2846.297482930776</v>
       </c>
       <c r="O26" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996234</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.452759614947</v>
+        <v>3976.452759614946</v>
       </c>
       <c r="Q26" t="n">
-        <v>4274.770370373403</v>
+        <v>4274.770370373401</v>
       </c>
       <c r="R26" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.90893008762</v>
+        <v>4160.908930087619</v>
       </c>
       <c r="T26" t="n">
-        <v>4160.90893008762</v>
+        <v>4160.908930087619</v>
       </c>
       <c r="U26" t="n">
-        <v>3907.257394454479</v>
+        <v>4160.908930087619</v>
       </c>
       <c r="V26" t="n">
-        <v>3576.194507110908</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W26" t="n">
-        <v>3277.242581811254</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X26" t="n">
-        <v>2903.776823550174</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y26" t="n">
-        <v>2513.637491574363</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G27" t="n">
         <v>221.0905542041166</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7691181380216</v>
+        <v>122.7691181380215</v>
       </c>
       <c r="I27" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J27" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869301</v>
       </c>
       <c r="K27" t="n">
-        <v>476.7640804989349</v>
+        <v>339.7736208434868</v>
       </c>
       <c r="L27" t="n">
-        <v>769.5776104406015</v>
+        <v>534.1725102865879</v>
       </c>
       <c r="M27" t="n">
-        <v>1015.788813389718</v>
+        <v>1241.431726348204</v>
       </c>
       <c r="N27" t="n">
-        <v>1282.925139172346</v>
+        <v>1983.11700273095</v>
       </c>
       <c r="O27" t="n">
-        <v>1895.006588831292</v>
+        <v>2418.26124464332</v>
       </c>
       <c r="P27" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417492</v>
       </c>
       <c r="Q27" t="n">
         <v>2633.576141175236</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.11364943189737</v>
+        <v>261.9370956957506</v>
       </c>
       <c r="C28" t="n">
-        <v>86.11364943189737</v>
+        <v>93.00091276784369</v>
       </c>
       <c r="D28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="E28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="F28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="G28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J28" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="K28" t="n">
         <v>212.8076375348876</v>
       </c>
       <c r="L28" t="n">
-        <v>430.4587576962459</v>
+        <v>430.4587576962458</v>
       </c>
       <c r="M28" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841302</v>
@@ -6411,25 +6411,25 @@
         <v>1289.276287324571</v>
       </c>
       <c r="S28" t="n">
-        <v>1085.761019183554</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="T28" t="n">
-        <v>861.0941374698848</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="U28" t="n">
-        <v>630.2153076747448</v>
+        <v>1000.136395774259</v>
       </c>
       <c r="V28" t="n">
-        <v>375.530819468858</v>
+        <v>1000.136395774259</v>
       </c>
       <c r="W28" t="n">
-        <v>86.11364943189737</v>
+        <v>710.7192257372981</v>
       </c>
       <c r="X28" t="n">
-        <v>86.11364943189737</v>
+        <v>482.7296748392807</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.11364943189737</v>
+        <v>261.9370956957506</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1226.766272743487</v>
       </c>
       <c r="F29" t="n">
-        <v>815.7803679538798</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G29" t="n">
         <v>399.1946814616588</v>
@@ -6463,10 +6463,10 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826238</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K29" t="n">
-        <v>782.5847574885281</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L29" t="n">
         <v>1413.055650717815</v>
@@ -6475,10 +6475,10 @@
         <v>2131.182543644153</v>
       </c>
       <c r="N29" t="n">
-        <v>2846.297482930777</v>
+        <v>2846.297482930778</v>
       </c>
       <c r="O29" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996236</v>
       </c>
       <c r="P29" t="n">
         <v>3976.452759614947</v>
@@ -6496,7 +6496,7 @@
         <v>4305.682471594869</v>
       </c>
       <c r="U29" t="n">
-        <v>4052.030935961728</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="V29" t="n">
         <v>3842.756326460022</v>
@@ -6542,19 +6542,19 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J30" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869302</v>
       </c>
       <c r="K30" t="n">
-        <v>476.7640804989349</v>
+        <v>597.970475231038</v>
       </c>
       <c r="L30" t="n">
-        <v>769.5776104406015</v>
+        <v>1159.501306524564</v>
       </c>
       <c r="M30" t="n">
-        <v>1015.788813389718</v>
+        <v>1405.71250947368</v>
       </c>
       <c r="N30" t="n">
-        <v>1282.925139172346</v>
+        <v>1672.848835256308</v>
       </c>
       <c r="O30" t="n">
         <v>1895.006588831292</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.6940548447816</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="C31" t="n">
-        <v>107.6940548447816</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="D31" t="n">
-        <v>107.6940548447816</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="E31" t="n">
-        <v>107.6940548447816</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="F31" t="n">
-        <v>107.6940548447816</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="G31" t="n">
         <v>86.11364943189737</v>
@@ -6630,10 +6630,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M31" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N31" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O31" t="n">
         <v>1115.228778841302</v>
@@ -6645,28 +6645,28 @@
         <v>1289.276287324571</v>
       </c>
       <c r="R31" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="S31" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="T31" t="n">
-        <v>1168.925155535959</v>
+        <v>1064.609405610901</v>
       </c>
       <c r="U31" t="n">
-        <v>879.7852639856465</v>
+        <v>775.4695140605891</v>
       </c>
       <c r="V31" t="n">
-        <v>625.1007757797596</v>
+        <v>520.7850258547022</v>
       </c>
       <c r="W31" t="n">
-        <v>335.683605742799</v>
+        <v>314.1032003299147</v>
       </c>
       <c r="X31" t="n">
-        <v>107.6940548447816</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="Y31" t="n">
-        <v>107.6940548447816</v>
+        <v>86.11364943189737</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2339.782740888894</v>
+        <v>1860.618981857833</v>
       </c>
       <c r="C32" t="n">
-        <v>1970.820223948482</v>
+        <v>1491.656464917422</v>
       </c>
       <c r="D32" t="n">
-        <v>1612.554525341732</v>
+        <v>1133.390766310671</v>
       </c>
       <c r="E32" t="n">
-        <v>1226.766272743487</v>
+        <v>747.602513712427</v>
       </c>
       <c r="F32" t="n">
-        <v>815.7803679538798</v>
+        <v>747.602513712427</v>
       </c>
       <c r="G32" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H32" t="n">
-        <v>86.11364943189737</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I32" t="n">
         <v>86.11364943189737</v>
       </c>
       <c r="J32" t="n">
-        <v>316.5202242826239</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885281</v>
+        <v>782.5847574885279</v>
       </c>
       <c r="L32" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M32" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N32" t="n">
         <v>2846.297482930777</v>
@@ -6733,19 +6733,19 @@
         <v>3948.306990405673</v>
       </c>
       <c r="U32" t="n">
-        <v>3842.756326460022</v>
+        <v>3694.655454772532</v>
       </c>
       <c r="V32" t="n">
-        <v>3842.756326460022</v>
+        <v>3363.592567428961</v>
       </c>
       <c r="W32" t="n">
-        <v>3489.987671189907</v>
+        <v>3010.823912158847</v>
       </c>
       <c r="X32" t="n">
-        <v>3116.521912928828</v>
+        <v>2637.358153897767</v>
       </c>
       <c r="Y32" t="n">
-        <v>2726.382580953016</v>
+        <v>2247.218821921955</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J33" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869302</v>
       </c>
       <c r="K33" t="n">
-        <v>476.7640804989349</v>
+        <v>601.5942054859397</v>
       </c>
       <c r="L33" t="n">
-        <v>769.5776104406015</v>
+        <v>1159.501306524564</v>
       </c>
       <c r="M33" t="n">
-        <v>1015.788813389718</v>
+        <v>1405.71250947368</v>
       </c>
       <c r="N33" t="n">
-        <v>1282.925139172346</v>
+        <v>1672.848835256308</v>
       </c>
       <c r="O33" t="n">
         <v>1895.006588831292</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="C34" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="D34" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="E34" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="F34" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="G34" t="n">
         <v>86.11364943189737</v>
@@ -6867,10 +6867,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M34" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N34" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O34" t="n">
         <v>1115.228778841302</v>
@@ -6885,25 +6885,25 @@
         <v>1289.276287324571</v>
       </c>
       <c r="S34" t="n">
-        <v>1085.761019183554</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="T34" t="n">
-        <v>861.0941374698848</v>
+        <v>1147.344750123074</v>
       </c>
       <c r="U34" t="n">
-        <v>571.9542459195727</v>
+        <v>858.2048585727622</v>
       </c>
       <c r="V34" t="n">
-        <v>571.9542459195727</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W34" t="n">
-        <v>482.4848226810501</v>
+        <v>314.1032003299147</v>
       </c>
       <c r="X34" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="Y34" t="n">
-        <v>254.4952717830328</v>
+        <v>86.11364943189737</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2114.270517490974</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C35" t="n">
-        <v>2071.156166599591</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D35" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E35" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F35" t="n">
-        <v>916.1163106049883</v>
+        <v>815.7803679538798</v>
       </c>
       <c r="G35" t="n">
-        <v>499.5306241127672</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H35" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="I35" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5202242826235</v>
+        <v>316.5202242826239</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885279</v>
+        <v>782.5847574885281</v>
       </c>
       <c r="L35" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M35" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644151</v>
       </c>
       <c r="N35" t="n">
-        <v>2846.297482930777</v>
+        <v>2846.297482930776</v>
       </c>
       <c r="O35" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996234</v>
       </c>
       <c r="P35" t="n">
-        <v>3976.452759614947</v>
+        <v>3976.452759614946</v>
       </c>
       <c r="Q35" t="n">
-        <v>4274.770370373403</v>
+        <v>4274.770370373401</v>
       </c>
       <c r="R35" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="S35" t="n">
-        <v>4160.90893008762</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="T35" t="n">
-        <v>3948.306990405673</v>
+        <v>4305.682471594867</v>
       </c>
       <c r="U35" t="n">
-        <v>3948.306990405673</v>
+        <v>4052.030935961726</v>
       </c>
       <c r="V35" t="n">
-        <v>3617.244103062102</v>
+        <v>3720.968048618155</v>
       </c>
       <c r="W35" t="n">
-        <v>3264.475447791988</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X35" t="n">
-        <v>2891.009689530908</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y35" t="n">
-        <v>2500.870357555096</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="36">
@@ -7004,31 +7004,31 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2633071909824</v>
+        <v>358.2633071909823</v>
       </c>
       <c r="G36" t="n">
         <v>221.0905542041166</v>
       </c>
       <c r="H36" t="n">
-        <v>122.7691181380216</v>
+        <v>122.7691181380215</v>
       </c>
       <c r="I36" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J36" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869301</v>
       </c>
       <c r="K36" t="n">
-        <v>476.7640804989349</v>
+        <v>601.5942054859396</v>
       </c>
       <c r="L36" t="n">
-        <v>769.5776104406015</v>
+        <v>1159.501306524564</v>
       </c>
       <c r="M36" t="n">
-        <v>1015.788813389718</v>
+        <v>1405.71250947368</v>
       </c>
       <c r="N36" t="n">
-        <v>1282.925139172346</v>
+        <v>1672.848835256308</v>
       </c>
       <c r="O36" t="n">
         <v>1895.006588831292</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>689.0831634852245</v>
+        <v>423.4314547109396</v>
       </c>
       <c r="C37" t="n">
-        <v>520.1469805573176</v>
+        <v>254.4952717830327</v>
       </c>
       <c r="D37" t="n">
-        <v>520.1469805573176</v>
+        <v>254.4952717830327</v>
       </c>
       <c r="E37" t="n">
-        <v>372.2338869749245</v>
+        <v>254.4952717830327</v>
       </c>
       <c r="F37" t="n">
-        <v>372.2338869749245</v>
+        <v>254.4952717830327</v>
       </c>
       <c r="G37" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="H37" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="I37" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="J37" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189734</v>
       </c>
       <c r="K37" t="n">
         <v>212.8076375348876</v>
       </c>
       <c r="L37" t="n">
-        <v>430.4587576962459</v>
+        <v>430.4587576962458</v>
       </c>
       <c r="M37" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841302</v>
@@ -7119,28 +7119,28 @@
         <v>1289.276287324571</v>
       </c>
       <c r="R37" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="S37" t="n">
-        <v>1168.925155535959</v>
+        <v>1085.761019183554</v>
       </c>
       <c r="T37" t="n">
-        <v>944.2582738222889</v>
+        <v>1085.761019183554</v>
       </c>
       <c r="U37" t="n">
-        <v>944.2582738222889</v>
+        <v>1085.761019183554</v>
       </c>
       <c r="V37" t="n">
-        <v>944.2582738222889</v>
+        <v>1085.761019183554</v>
       </c>
       <c r="W37" t="n">
-        <v>944.2582738222889</v>
+        <v>796.3438491465936</v>
       </c>
       <c r="X37" t="n">
-        <v>909.8757426287547</v>
+        <v>796.3438491465936</v>
       </c>
       <c r="Y37" t="n">
-        <v>689.0831634852245</v>
+        <v>605.0799195411794</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2026.701708859132</v>
+        <v>1860.618981857833</v>
       </c>
       <c r="C38" t="n">
-        <v>1657.739191918721</v>
+        <v>1491.656464917422</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.47349331197</v>
+        <v>1133.390766310671</v>
       </c>
       <c r="E38" t="n">
-        <v>913.685240713726</v>
+        <v>1133.390766310671</v>
       </c>
       <c r="F38" t="n">
-        <v>502.6993359241184</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G38" t="n">
-        <v>86.11364943189737</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H38" t="n">
-        <v>86.11364943189737</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I38" t="n">
         <v>86.11364943189737</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826235</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K38" t="n">
         <v>782.5847574885279</v>
       </c>
       <c r="L38" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M38" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N38" t="n">
         <v>2846.297482930777</v>
@@ -7201,25 +7201,25 @@
         <v>4305.682471594869</v>
       </c>
       <c r="S38" t="n">
-        <v>4305.682471594869</v>
+        <v>4160.90893008762</v>
       </c>
       <c r="T38" t="n">
-        <v>4093.080531912921</v>
+        <v>3948.306990405673</v>
       </c>
       <c r="U38" t="n">
-        <v>3839.42899627978</v>
+        <v>3694.655454772532</v>
       </c>
       <c r="V38" t="n">
-        <v>3508.366108936209</v>
+        <v>3363.592567428961</v>
       </c>
       <c r="W38" t="n">
-        <v>3176.906639160146</v>
+        <v>3010.823912158847</v>
       </c>
       <c r="X38" t="n">
-        <v>2803.440880899066</v>
+        <v>2637.358153897767</v>
       </c>
       <c r="Y38" t="n">
-        <v>2413.301548923254</v>
+        <v>2247.218821921955</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>86.11364943189737</v>
       </c>
       <c r="J39" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869302</v>
       </c>
       <c r="K39" t="n">
-        <v>476.7640804989349</v>
+        <v>601.5942054859397</v>
       </c>
       <c r="L39" t="n">
-        <v>769.5776104406015</v>
+        <v>795.9930949290408</v>
       </c>
       <c r="M39" t="n">
-        <v>1015.788813389718</v>
+        <v>1042.204297878158</v>
       </c>
       <c r="N39" t="n">
-        <v>1282.925139172346</v>
+        <v>1309.340623660785</v>
       </c>
       <c r="O39" t="n">
-        <v>1895.006588831292</v>
+        <v>1921.422073319731</v>
       </c>
       <c r="P39" t="n">
-        <v>2369.252846559001</v>
+        <v>2395.66833104744</v>
       </c>
       <c r="Q39" t="n">
         <v>2633.576141175236</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="C40" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="D40" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="E40" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="F40" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="G40" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189737</v>
       </c>
       <c r="H40" t="n">
         <v>86.11364943189737</v>
@@ -7341,10 +7341,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692324</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841302</v>
@@ -7359,25 +7359,25 @@
         <v>1289.276287324571</v>
       </c>
       <c r="S40" t="n">
-        <v>1289.276287324571</v>
+        <v>1085.761019183554</v>
       </c>
       <c r="T40" t="n">
-        <v>1064.609405610901</v>
+        <v>861.0941374698846</v>
       </c>
       <c r="U40" t="n">
-        <v>775.4695140605893</v>
+        <v>861.0941374698846</v>
       </c>
       <c r="V40" t="n">
-        <v>527.7830284317777</v>
+        <v>606.4096492639977</v>
       </c>
       <c r="W40" t="n">
-        <v>238.3658583948171</v>
+        <v>606.4096492639977</v>
       </c>
       <c r="X40" t="n">
-        <v>238.3658583948171</v>
+        <v>378.4200983659804</v>
       </c>
       <c r="Y40" t="n">
-        <v>238.3658583948171</v>
+        <v>267.7621142621371</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2339.782740888894</v>
+        <v>2029.132778750395</v>
       </c>
       <c r="C41" t="n">
-        <v>1970.820223948482</v>
+        <v>1660.170261809983</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.554525341732</v>
+        <v>1301.904563203233</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.766272743487</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="F41" t="n">
-        <v>815.7803679538798</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G41" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H41" t="n">
-        <v>86.11364943189737</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I41" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J41" t="n">
-        <v>316.5202242826239</v>
+        <v>316.5202242826238</v>
       </c>
       <c r="K41" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885281</v>
       </c>
       <c r="L41" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717814</v>
       </c>
       <c r="M41" t="n">
-        <v>2131.182543644153</v>
+        <v>2131.182543644152</v>
       </c>
       <c r="N41" t="n">
-        <v>2846.297482930778</v>
+        <v>2846.297482930777</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.372603996236</v>
+        <v>3476.372603996234</v>
       </c>
       <c r="P41" t="n">
-        <v>3976.452759614948</v>
+        <v>3976.452759614946</v>
       </c>
       <c r="Q41" t="n">
-        <v>4274.770370373404</v>
+        <v>4274.770370373402</v>
       </c>
       <c r="R41" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594868</v>
       </c>
       <c r="S41" t="n">
-        <v>4305.682471594869</v>
+        <v>4160.908930087619</v>
       </c>
       <c r="T41" t="n">
-        <v>4093.080531912921</v>
+        <v>3948.306990405672</v>
       </c>
       <c r="U41" t="n">
-        <v>3839.42899627978</v>
+        <v>3694.655454772531</v>
       </c>
       <c r="V41" t="n">
-        <v>3508.366108936209</v>
+        <v>3363.59256742896</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.597453666095</v>
+        <v>3010.823912158846</v>
       </c>
       <c r="X41" t="n">
-        <v>3116.521912928828</v>
+        <v>2637.358153897766</v>
       </c>
       <c r="Y41" t="n">
-        <v>2726.382580953016</v>
+        <v>2415.732618814517</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G42" t="n">
         <v>221.0905542041166</v>
@@ -7487,28 +7487,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I42" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J42" t="n">
-        <v>104.8187222999254</v>
+        <v>229.6488472869301</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9434958564822</v>
+        <v>416.0232940055662</v>
       </c>
       <c r="L42" t="n">
-        <v>776.4743271500081</v>
+        <v>977.554125299092</v>
       </c>
       <c r="M42" t="n">
-        <v>1022.685530099125</v>
+        <v>1223.765328248209</v>
       </c>
       <c r="N42" t="n">
-        <v>1289.821855881753</v>
+        <v>1490.901654030837</v>
       </c>
       <c r="O42" t="n">
-        <v>1901.903305540698</v>
+        <v>2102.983103689782</v>
       </c>
       <c r="P42" t="n">
-        <v>2376.149563268408</v>
+        <v>2577.229361417492</v>
       </c>
       <c r="Q42" t="n">
         <v>2633.576141175236</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="C43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="D43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="E43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="F43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="G43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="H43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="K43" t="n">
         <v>212.8076375348876</v>
@@ -7578,10 +7578,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M43" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692326</v>
       </c>
       <c r="O43" t="n">
         <v>1115.228778841302</v>
@@ -7596,25 +7596,25 @@
         <v>1289.276287324571</v>
       </c>
       <c r="S43" t="n">
-        <v>1144.022080938727</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="T43" t="n">
-        <v>919.355199225057</v>
+        <v>1064.609405610901</v>
       </c>
       <c r="U43" t="n">
-        <v>630.2153076747448</v>
+        <v>775.4695140605893</v>
       </c>
       <c r="V43" t="n">
-        <v>375.530819468858</v>
+        <v>520.7850258547024</v>
       </c>
       <c r="W43" t="n">
-        <v>86.11364943189737</v>
+        <v>231.3678558177418</v>
       </c>
       <c r="X43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.392523365082</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.43000642467</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.16430781792</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E44" t="n">
-        <v>892.3760552196754</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F44" t="n">
-        <v>481.3901504300679</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G44" t="n">
-        <v>186.4495920830058</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H44" t="n">
         <v>186.4495920830058</v>
       </c>
       <c r="I44" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J44" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826239</v>
       </c>
       <c r="K44" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885281</v>
       </c>
       <c r="L44" t="n">
         <v>1413.055650717815</v>
@@ -7663,37 +7663,37 @@
         <v>2846.297482930777</v>
       </c>
       <c r="O44" t="n">
-        <v>3476.372603996235</v>
+        <v>3476.372603996234</v>
       </c>
       <c r="P44" t="n">
-        <v>3976.452759614947</v>
+        <v>3976.452759614946</v>
       </c>
       <c r="Q44" t="n">
-        <v>4274.770370373403</v>
+        <v>4274.770370373402</v>
       </c>
       <c r="R44" t="n">
-        <v>4305.682471594869</v>
+        <v>4305.682471594868</v>
       </c>
       <c r="S44" t="n">
-        <v>4305.682471594869</v>
+        <v>4160.908930087619</v>
       </c>
       <c r="T44" t="n">
-        <v>4093.080531912921</v>
+        <v>4160.908930087619</v>
       </c>
       <c r="U44" t="n">
-        <v>3839.42899627978</v>
+        <v>3907.257394454478</v>
       </c>
       <c r="V44" t="n">
-        <v>3508.366108936209</v>
+        <v>3576.194507110908</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.597453666095</v>
+        <v>3223.425851840793</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.131695405015</v>
+        <v>2849.960093579713</v>
       </c>
       <c r="Y44" t="n">
-        <v>2391.992363429204</v>
+        <v>2459.820761603902</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G45" t="n">
         <v>221.0905542041166</v>
@@ -7724,28 +7724,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I45" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J45" t="n">
-        <v>229.6488472869302</v>
+        <v>104.8187222999254</v>
       </c>
       <c r="K45" t="n">
-        <v>339.7736208434869</v>
+        <v>416.0232940055662</v>
       </c>
       <c r="L45" t="n">
-        <v>534.1725102865881</v>
+        <v>977.554125299092</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.431726348205</v>
+        <v>1223.765328248209</v>
       </c>
       <c r="N45" t="n">
-        <v>1983.117002730951</v>
+        <v>1490.901654030837</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.274756305934</v>
+        <v>2102.983103689782</v>
       </c>
       <c r="P45" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417492</v>
       </c>
       <c r="Q45" t="n">
         <v>2633.576141175236</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.11364943189737</v>
+        <v>551.0769872460629</v>
       </c>
       <c r="C46" t="n">
-        <v>86.11364943189737</v>
+        <v>551.0769872460629</v>
       </c>
       <c r="D46" t="n">
-        <v>86.11364943189737</v>
+        <v>400.9603478337272</v>
       </c>
       <c r="E46" t="n">
-        <v>86.11364943189737</v>
+        <v>253.047254251334</v>
       </c>
       <c r="F46" t="n">
-        <v>86.11364943189737</v>
+        <v>253.047254251334</v>
       </c>
       <c r="G46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="H46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="I46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="J46" t="n">
-        <v>86.11364943189737</v>
+        <v>86.11364943189736</v>
       </c>
       <c r="K46" t="n">
         <v>212.8076375348876</v>
@@ -7815,10 +7815,10 @@
         <v>430.4587576962459</v>
       </c>
       <c r="M46" t="n">
-        <v>670.3304700620223</v>
+        <v>670.3304700620222</v>
       </c>
       <c r="N46" t="n">
-        <v>909.9331856692327</v>
+        <v>909.9331856692326</v>
       </c>
       <c r="O46" t="n">
         <v>1115.228778841302</v>
@@ -7836,22 +7836,22 @@
         <v>1289.276287324571</v>
       </c>
       <c r="T46" t="n">
-        <v>1064.609405610901</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="U46" t="n">
-        <v>775.4695140605893</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="V46" t="n">
-        <v>775.4695140605893</v>
+        <v>1289.276287324571</v>
       </c>
       <c r="W46" t="n">
-        <v>486.0523440236287</v>
+        <v>999.8591172876104</v>
       </c>
       <c r="X46" t="n">
-        <v>486.0523440236287</v>
+        <v>771.869566389593</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.2597648800986</v>
+        <v>551.0769872460629</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>186.2236012992101</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.438569758329351</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>15.92129162592957</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617263718</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263729</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>110.9405987984239</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263729</v>
       </c>
       <c r="N21" t="n">
-        <v>110.9405987984242</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>260.8049034217688</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>413.0716468211403</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>99.4087277763287</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>215.1378670074612</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>260.8049034217688</v>
       </c>
       <c r="L30" t="n">
-        <v>99.4087277763287</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>99.4087277763287</v>
+        <v>367.1800117126493</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>99.4087277763287</v>
+        <v>367.1800117126494</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>99.4087277763287</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>183.394980171769</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298176</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>77.01987188088819</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>203.1109072212965</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627444</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>203.110907221297</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>5.060579271611061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938904</v>
+        <v>22.23299471584451</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>71.43590749695261</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
         <v>17.69584188176906</v>
@@ -23466,7 +23466,7 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>13.92385563909332</v>
       </c>
       <c r="T13" t="n">
         <v>223.3729047207587</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>150.4091849704865</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>198.9231251361168</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>66.26437980770629</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>87.93655753259037</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
         <v>17.69584188176906</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>202.6349001288876</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>302.6862668729273</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.87781691799518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,10 +23940,10 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>195.7864033101466</v>
+        <v>87.6981621747733</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>76.83632516394903</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>113.8332951025897</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>145.3717853434138</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
@@ -24150,7 +24150,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176907</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001187</v>
@@ -24183,13 +24183,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>53.57061502586035</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>119.6890798200669</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>219.0216630446643</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.67845113762041</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7242672439436</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>12.7811808788141</v>
       </c>
       <c r="W26" t="n">
-        <v>53.27856267075532</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7970823156255</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24624,7 +24624,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>119.1476204707265</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
-        <v>57.67845113762047</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459731</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>120.5703950634456</v>
       </c>
       <c r="V29" t="n">
-        <v>120.570395063446</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.3332047688686</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
         <v>150.7296868732905</v>
@@ -24861,7 +24861,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.1476204707265</v>
       </c>
       <c r="S31" t="n">
         <v>201.4801154596065</v>
       </c>
       <c r="T31" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.9079910670514</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>166.8286589236356</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>146.6198629706149</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H34" t="n">
         <v>150.7296868732905</v>
@@ -25098,7 +25098,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>119.1476204707265</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>81.90799106705151</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>197.9482693304536</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>322.5896843885376</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.33258322459733</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>143.3258060921759</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>120.5703950634478</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,10 +25332,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.1476204707265</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U37" t="n">
         <v>286.248492634809</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>191.6709495074383</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>29.23336304273474</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>191.7743345930852</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459731</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921759</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>21.09609363911011</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,13 +25566,13 @@
         <v>166.697806127624</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I40" t="n">
         <v>116.5612290399729</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655107</v>
+        <v>1.931832696655121</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>119.1476204707265</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V40" t="n">
-        <v>6.928022551304508</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>109.0332490892899</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.3325832245973</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.3258060921759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>331.0463153485741</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>166.8286589236367</v>
       </c>
     </row>
     <row r="42">
@@ -25809,7 +25809,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696655093</v>
+        <v>1.931832696655107</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>119.1476204707265</v>
       </c>
       <c r="S43" t="n">
-        <v>57.67845113762058</v>
+        <v>201.4801154596065</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90799106705114</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>363.22878438022</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>120.4286768637073</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.3258060921759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.477325888218104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.697806127624</v>
+        <v>1.433537356381692</v>
       </c>
       <c r="H46" t="n">
         <v>150.7296868732905</v>
@@ -26046,7 +26046,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J46" t="n">
-        <v>1.931832696655093</v>
+        <v>1.931832696655107</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>201.4801154596065</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>707606.3240377271</v>
+        <v>707606.324037727</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>707606.3240377271</v>
+        <v>707606.3240377272</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>707606.324037727</v>
+        <v>707606.3240377271</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761350.2589243441</v>
+        <v>761350.2589243442</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761350.2589243442</v>
+        <v>761350.2589243441</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761350.2589243441</v>
+        <v>761350.2589243442</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761350.2589243442</v>
+        <v>761350.2589243441</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761350.2589243441</v>
+        <v>761350.2589243442</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761350.2589243442</v>
+        <v>761350.2589243441</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398212</v>
       </c>
       <c r="E2" t="n">
         <v>506603.4835399851</v>
@@ -26328,34 +26328,34 @@
         <v>506603.4835399851</v>
       </c>
       <c r="G2" t="n">
-        <v>506603.4835399851</v>
+        <v>506603.4835399849</v>
       </c>
       <c r="H2" t="n">
         <v>506603.4835399849</v>
       </c>
       <c r="I2" t="n">
+        <v>548328.532568696</v>
+      </c>
+      <c r="J2" t="n">
         <v>548328.5325686957</v>
       </c>
-      <c r="J2" t="n">
-        <v>548328.5325686958</v>
-      </c>
       <c r="K2" t="n">
-        <v>548328.532568696</v>
+        <v>548328.5325686957</v>
       </c>
       <c r="L2" t="n">
-        <v>548328.5325686955</v>
+        <v>548328.5325686957</v>
       </c>
       <c r="M2" t="n">
-        <v>548328.5325686958</v>
+        <v>548328.5325686956</v>
       </c>
       <c r="N2" t="n">
         <v>548328.5325686957</v>
       </c>
       <c r="O2" t="n">
-        <v>548328.5325686956</v>
+        <v>548328.5325686958</v>
       </c>
       <c r="P2" t="n">
-        <v>548328.5325686958</v>
+        <v>548328.5325686957</v>
       </c>
     </row>
     <row r="3">
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.529058685</v>
+        <v>133368.5290586848</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910611</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
         <v>312595.3744187171</v>
@@ -26426,13 +26426,13 @@
         <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>32774.53910638621</v>
+        <v>32774.53910638622</v>
       </c>
       <c r="F4" t="n">
-        <v>32774.53910638621</v>
+        <v>32774.53910638622</v>
       </c>
       <c r="G4" t="n">
-        <v>32774.53910638621</v>
+        <v>32774.53910638622</v>
       </c>
       <c r="H4" t="n">
         <v>32774.53910638622</v>
@@ -26456,10 +26456,10 @@
         <v>30961.86094063332</v>
       </c>
       <c r="O4" t="n">
+        <v>30961.86094063332</v>
+      </c>
+      <c r="P4" t="n">
         <v>30961.86094063331</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30961.86094063332</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>69171.54328360147</v>
       </c>
       <c r="F5" t="n">
+        <v>69171.54328360145</v>
+      </c>
+      <c r="G5" t="n">
         <v>69171.54328360147</v>
       </c>
-      <c r="G5" t="n">
-        <v>69171.54328360145</v>
-      </c>
       <c r="H5" t="n">
-        <v>69171.54328360145</v>
+        <v>69171.54328360147</v>
       </c>
       <c r="I5" t="n">
         <v>81079.66231700624</v>
       </c>
       <c r="J5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700621</v>
       </c>
       <c r="K5" t="n">
         <v>81079.66231700624</v>
@@ -26502,16 +26502,16 @@
         <v>81079.66231700624</v>
       </c>
       <c r="M5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700621</v>
       </c>
       <c r="N5" t="n">
         <v>81079.66231700624</v>
       </c>
       <c r="O5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700622</v>
       </c>
       <c r="P5" t="n">
-        <v>81079.66231700624</v>
+        <v>81079.66231700622</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174135.2526841861</v>
+        <v>174135.252684186</v>
       </c>
       <c r="C6" t="n">
-        <v>254904.6842157338</v>
+        <v>254904.6842157336</v>
       </c>
       <c r="D6" t="n">
-        <v>254904.6842157338</v>
+        <v>254904.6842157333</v>
       </c>
       <c r="E6" t="n">
-        <v>-279974.8029737834</v>
+        <v>-276699.4676580367</v>
       </c>
       <c r="F6" t="n">
-        <v>401018.1396880565</v>
+        <v>404293.4750038033</v>
       </c>
       <c r="G6" t="n">
-        <v>401018.1396880565</v>
+        <v>404293.4750038031</v>
       </c>
       <c r="H6" t="n">
-        <v>401018.1396880563</v>
+        <v>404293.4750038031</v>
       </c>
       <c r="I6" t="n">
-        <v>300670.0537580539</v>
+        <v>302693.6376029399</v>
       </c>
       <c r="J6" t="n">
-        <v>370978.6402176328</v>
+        <v>373002.2240625183</v>
       </c>
       <c r="K6" t="n">
-        <v>434038.5828167391</v>
+        <v>436062.1666616243</v>
       </c>
       <c r="L6" t="n">
-        <v>434038.5828167386</v>
+        <v>436062.1666616244</v>
       </c>
       <c r="M6" t="n">
-        <v>263612.1662530276</v>
+        <v>265635.750097913</v>
       </c>
       <c r="N6" t="n">
-        <v>434038.5828167389</v>
+        <v>436062.1666616244</v>
       </c>
       <c r="O6" t="n">
-        <v>434038.5828167389</v>
+        <v>436062.1666616246</v>
       </c>
       <c r="P6" t="n">
-        <v>434038.582816739</v>
+        <v>436062.1666616245</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>593.4761003380645</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380644</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="I3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="J3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="K3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="L3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="M3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="N3" t="n">
+        <v>717.123337099277</v>
+      </c>
+      <c r="O3" t="n">
         <v>717.1233370992771</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>717.1233370992771</v>
-      </c>
-      <c r="K3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="L3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="M3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="N3" t="n">
-        <v>717.1233370992771</v>
-      </c>
-      <c r="O3" t="n">
-        <v>717.1233370992773</v>
-      </c>
-      <c r="P3" t="n">
-        <v>717.1233370992773</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>924.8974390827575</v>
       </c>
       <c r="F4" t="n">
+        <v>924.8974390827574</v>
+      </c>
+      <c r="G4" t="n">
         <v>924.8974390827575</v>
       </c>
-      <c r="G4" t="n">
-        <v>924.8974390827574</v>
-      </c>
       <c r="H4" t="n">
-        <v>924.8974390827574</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="I4" t="n">
         <v>1076.420617898717</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612128</v>
+        <v>123.6472367612125</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,13 +27032,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159598</v>
+        <v>151.5231788159597</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776586</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>299.8732980600574</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>24.39083643944002</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.3538788638096</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36.14989389716658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>349.1336082720569</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27675,7 +27675,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>152.7095989109852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27697,22 +27697,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8987087301646</v>
+        <v>77.83986791782458</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>290.6389069322254</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.9462234883513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3983415011524</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27988,16 +27988,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>83.18302659787167</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198247</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055155</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I20" t="n">
-        <v>91.9798486765155</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937399</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779017</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L20" t="n">
         <v>376.5024309712527</v>
       </c>
       <c r="M20" t="n">
-        <v>418.931498707482</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359665</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822514</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P20" t="n">
         <v>343.0858495426697</v>
@@ -32499,13 +32499,13 @@
         <v>149.8691179411495</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810511</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T20" t="n">
         <v>10.44398644916533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358597</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>12.328626159853</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182836</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J21" t="n">
         <v>120.6044214847382</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070426</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L21" t="n">
         <v>277.1701353512819</v>
@@ -32563,7 +32563,7 @@
         <v>323.4444746842451</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900649</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O21" t="n">
         <v>303.7197925947074</v>
@@ -32572,19 +32572,19 @@
         <v>243.7619099671571</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607455</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080795</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S21" t="n">
         <v>23.71104985784624</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308311</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897141</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,16 +32624,16 @@
         <v>1.070202803888313</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207006</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784127</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J22" t="n">
-        <v>75.6633382349037</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790239</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L22" t="n">
         <v>159.1099695889952</v>
@@ -32651,19 +32651,19 @@
         <v>129.4361645720919</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104771</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937812</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685359</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522789</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390803</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H23" t="n">
         <v>29.52458040630339</v>
@@ -32715,7 +32715,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L23" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M23" t="n">
         <v>506.2133996600339</v>
@@ -32724,25 +32724,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P23" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q23" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R23" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T23" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,7 +32782,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H24" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I24" t="n">
         <v>53.10771883235213</v>
@@ -32791,31 +32791,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K24" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M24" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N24" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P24" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S24" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T24" t="n">
         <v>6.217324026360711</v>
@@ -32864,22 +32864,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I25" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L25" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M25" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N25" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O25" t="n">
         <v>182.7841581183535</v>
@@ -32897,10 +32897,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H26" t="n">
         <v>29.52458040630339</v>
@@ -32952,7 +32952,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L26" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M26" t="n">
         <v>506.2133996600339</v>
@@ -32961,25 +32961,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P26" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R26" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S26" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T26" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H27" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I27" t="n">
         <v>53.10771883235213</v>
@@ -33028,31 +33028,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K27" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M27" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N27" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O27" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P27" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S27" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T27" t="n">
         <v>6.217324026360711</v>
@@ -33101,22 +33101,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I28" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L28" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M28" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N28" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O28" t="n">
         <v>182.7841581183535</v>
@@ -33134,10 +33134,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H29" t="n">
         <v>29.52458040630339</v>
@@ -33189,7 +33189,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L29" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M29" t="n">
         <v>506.2133996600339</v>
@@ -33198,25 +33198,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q29" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R29" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S29" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T29" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U29" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H30" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I30" t="n">
         <v>53.10771883235213</v>
@@ -33265,31 +33265,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K30" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L30" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M30" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N30" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O30" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P30" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S30" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T30" t="n">
         <v>6.217324026360711</v>
@@ -33338,22 +33338,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I31" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L31" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M31" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N31" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O31" t="n">
         <v>182.7841581183535</v>
@@ -33371,10 +33371,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H32" t="n">
         <v>29.52458040630339</v>
@@ -33426,7 +33426,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L32" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M32" t="n">
         <v>506.2133996600339</v>
@@ -33435,25 +33435,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P32" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q32" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R32" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S32" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T32" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U32" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,7 +33493,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H33" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I33" t="n">
         <v>53.10771883235213</v>
@@ -33502,31 +33502,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K33" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L33" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M33" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N33" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O33" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P33" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S33" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T33" t="n">
         <v>6.217324026360711</v>
@@ -33575,22 +33575,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I34" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L34" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M34" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N34" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O34" t="n">
         <v>182.7841581183535</v>
@@ -33608,10 +33608,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H35" t="n">
         <v>29.52458040630339</v>
@@ -33663,7 +33663,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L35" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M35" t="n">
         <v>506.2133996600339</v>
@@ -33672,25 +33672,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P35" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q35" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R35" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S35" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T35" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U35" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H36" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I36" t="n">
         <v>53.10771883235213</v>
@@ -33739,31 +33739,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K36" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M36" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N36" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O36" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P36" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T36" t="n">
         <v>6.217324026360711</v>
@@ -33812,22 +33812,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I37" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L37" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M37" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N37" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O37" t="n">
         <v>182.7841581183535</v>
@@ -33845,10 +33845,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.882907887836288</v>
+        <v>2.882907887836287</v>
       </c>
       <c r="H38" t="n">
         <v>29.52458040630339</v>
@@ -33900,7 +33900,7 @@
         <v>366.7166942373555</v>
       </c>
       <c r="L38" t="n">
-        <v>454.9444865097254</v>
+        <v>454.9444865097253</v>
       </c>
       <c r="M38" t="n">
         <v>506.2133996600339</v>
@@ -33909,25 +33909,25 @@
         <v>514.4044616963488</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866767</v>
+        <v>485.7375463866766</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057183</v>
+        <v>414.5657579057182</v>
       </c>
       <c r="Q38" t="n">
-        <v>311.3216191725812</v>
+        <v>311.3216191725811</v>
       </c>
       <c r="R38" t="n">
         <v>181.0934626092964</v>
       </c>
       <c r="S38" t="n">
-        <v>65.69426349406947</v>
+        <v>65.69426349406946</v>
       </c>
       <c r="T38" t="n">
-        <v>12.61992927900336</v>
+        <v>12.61992927900335</v>
       </c>
       <c r="U38" t="n">
-        <v>0.230632631026903</v>
+        <v>0.2306326310269029</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>1.542491706213539</v>
       </c>
       <c r="H39" t="n">
-        <v>14.89722253106235</v>
+        <v>14.89722253106234</v>
       </c>
       <c r="I39" t="n">
         <v>53.10771883235213</v>
@@ -33976,31 +33976,31 @@
         <v>145.7316396646748</v>
       </c>
       <c r="K39" t="n">
-        <v>249.078583980982</v>
+        <v>249.0785839809819</v>
       </c>
       <c r="L39" t="n">
-        <v>334.9168943688653</v>
+        <v>334.9168943688652</v>
       </c>
       <c r="M39" t="n">
-        <v>390.832218719106</v>
+        <v>390.8322187191059</v>
       </c>
       <c r="N39" t="n">
-        <v>401.1763845910381</v>
+        <v>401.176384591038</v>
       </c>
       <c r="O39" t="n">
-        <v>366.9980157323065</v>
+        <v>366.9980157323064</v>
       </c>
       <c r="P39" t="n">
         <v>294.5482627417767</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.8977132352582</v>
+        <v>196.8977132352581</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525822</v>
+        <v>95.76979207525821</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65110691146639</v>
+        <v>28.65110691146638</v>
       </c>
       <c r="T39" t="n">
         <v>6.217324026360711</v>
@@ -34049,22 +34049,22 @@
         <v>11.49748563414907</v>
       </c>
       <c r="I40" t="n">
-        <v>38.8892458872854</v>
+        <v>38.88924588728539</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001767</v>
+        <v>91.42734742001765</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824387</v>
       </c>
       <c r="L40" t="n">
-        <v>192.2595910642882</v>
+        <v>192.2595910642881</v>
       </c>
       <c r="M40" t="n">
-        <v>202.7107819934891</v>
+        <v>202.710781993489</v>
       </c>
       <c r="N40" t="n">
-        <v>197.8907726785597</v>
+        <v>197.8907726785596</v>
       </c>
       <c r="O40" t="n">
         <v>182.7841581183535</v>
@@ -34082,10 +34082,10 @@
         <v>22.5364825773658</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748527</v>
+        <v>5.525376531748526</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189619</v>
+        <v>0.07053672168189618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,31 +34125,31 @@
         <v>2.882907887836288</v>
       </c>
       <c r="H41" t="n">
-        <v>29.5245804063034</v>
+        <v>29.52458040630339</v>
       </c>
       <c r="I41" t="n">
         <v>111.1433063458086</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6832033452454</v>
+        <v>244.6832033452453</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7166942373556</v>
+        <v>366.7166942373555</v>
       </c>
       <c r="L41" t="n">
         <v>454.9444865097254</v>
       </c>
       <c r="M41" t="n">
-        <v>506.213399660034</v>
+        <v>506.2133996600339</v>
       </c>
       <c r="N41" t="n">
-        <v>514.4044616963489</v>
+        <v>514.4044616963488</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866768</v>
+        <v>485.7375463866767</v>
       </c>
       <c r="P41" t="n">
-        <v>414.5657579057184</v>
+        <v>414.5657579057183</v>
       </c>
       <c r="Q41" t="n">
         <v>311.3216191725812</v>
@@ -34158,7 +34158,7 @@
         <v>181.0934626092964</v>
       </c>
       <c r="S41" t="n">
-        <v>65.69426349406949</v>
+        <v>65.69426349406947</v>
       </c>
       <c r="T41" t="n">
         <v>12.61992927900336</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.54249170621354</v>
+        <v>1.542491706213539</v>
       </c>
       <c r="H42" t="n">
         <v>14.89722253106235</v>
       </c>
       <c r="I42" t="n">
-        <v>53.10771883235214</v>
+        <v>53.10771883235213</v>
       </c>
       <c r="J42" t="n">
         <v>145.7316396646748</v>
@@ -34225,7 +34225,7 @@
         <v>401.1763845910381</v>
       </c>
       <c r="O42" t="n">
-        <v>366.9980157323066</v>
+        <v>366.9980157323065</v>
       </c>
       <c r="P42" t="n">
         <v>294.5482627417767</v>
@@ -34234,13 +34234,13 @@
         <v>196.8977132352582</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525824</v>
+        <v>95.76979207525822</v>
       </c>
       <c r="S42" t="n">
         <v>28.65110691146639</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360713</v>
+        <v>6.217324026360711</v>
       </c>
       <c r="U42" t="n">
         <v>0.1014797175140487</v>
@@ -34283,13 +34283,13 @@
         <v>1.293173230834762</v>
       </c>
       <c r="H43" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414907</v>
       </c>
       <c r="I43" t="n">
         <v>38.8892458872854</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001768</v>
+        <v>91.42734742001767</v>
       </c>
       <c r="K43" t="n">
         <v>150.2432171824387</v>
@@ -34307,13 +34307,13 @@
         <v>182.7841581183535</v>
       </c>
       <c r="P43" t="n">
-        <v>156.4034242093243</v>
+        <v>156.4034242093242</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.2856239019909</v>
+        <v>108.2856239019908</v>
       </c>
       <c r="R43" t="n">
-        <v>58.14577090644302</v>
+        <v>58.145770906443</v>
       </c>
       <c r="S43" t="n">
         <v>22.5364825773658</v>
@@ -34322,7 +34322,7 @@
         <v>5.525376531748527</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0705367216818962</v>
+        <v>0.07053672168189619</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>2.882907887836288</v>
       </c>
       <c r="H44" t="n">
-        <v>29.5245804063034</v>
+        <v>29.52458040630339</v>
       </c>
       <c r="I44" t="n">
         <v>111.1433063458086</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6832033452454</v>
+        <v>244.6832033452453</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7166942373556</v>
+        <v>366.7166942373555</v>
       </c>
       <c r="L44" t="n">
         <v>454.9444865097254</v>
       </c>
       <c r="M44" t="n">
-        <v>506.213399660034</v>
+        <v>506.2133996600339</v>
       </c>
       <c r="N44" t="n">
-        <v>514.4044616963489</v>
+        <v>514.4044616963488</v>
       </c>
       <c r="O44" t="n">
-        <v>485.7375463866768</v>
+        <v>485.7375463866767</v>
       </c>
       <c r="P44" t="n">
-        <v>414.5657579057184</v>
+        <v>414.5657579057183</v>
       </c>
       <c r="Q44" t="n">
         <v>311.3216191725812</v>
@@ -34395,7 +34395,7 @@
         <v>181.0934626092964</v>
       </c>
       <c r="S44" t="n">
-        <v>65.69426349406949</v>
+        <v>65.69426349406947</v>
       </c>
       <c r="T44" t="n">
         <v>12.61992927900336</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.54249170621354</v>
+        <v>1.542491706213539</v>
       </c>
       <c r="H45" t="n">
         <v>14.89722253106235</v>
       </c>
       <c r="I45" t="n">
-        <v>53.10771883235214</v>
+        <v>53.10771883235213</v>
       </c>
       <c r="J45" t="n">
         <v>145.7316396646748</v>
@@ -34462,7 +34462,7 @@
         <v>401.1763845910381</v>
       </c>
       <c r="O45" t="n">
-        <v>366.9980157323066</v>
+        <v>366.9980157323065</v>
       </c>
       <c r="P45" t="n">
         <v>294.5482627417767</v>
@@ -34471,13 +34471,13 @@
         <v>196.8977132352582</v>
       </c>
       <c r="R45" t="n">
-        <v>95.76979207525824</v>
+        <v>95.76979207525822</v>
       </c>
       <c r="S45" t="n">
         <v>28.65110691146639</v>
       </c>
       <c r="T45" t="n">
-        <v>6.217324026360713</v>
+        <v>6.217324026360711</v>
       </c>
       <c r="U45" t="n">
         <v>0.1014797175140487</v>
@@ -34520,13 +34520,13 @@
         <v>1.293173230834762</v>
       </c>
       <c r="H46" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414907</v>
       </c>
       <c r="I46" t="n">
         <v>38.8892458872854</v>
       </c>
       <c r="J46" t="n">
-        <v>91.42734742001768</v>
+        <v>91.42734742001767</v>
       </c>
       <c r="K46" t="n">
         <v>150.2432171824387</v>
@@ -34544,13 +34544,13 @@
         <v>182.7841581183535</v>
       </c>
       <c r="P46" t="n">
-        <v>156.4034242093243</v>
+        <v>156.4034242093242</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.2856239019909</v>
+        <v>108.2856239019908</v>
       </c>
       <c r="R46" t="n">
-        <v>58.14577090644302</v>
+        <v>58.145770906443</v>
       </c>
       <c r="S46" t="n">
         <v>22.5364825773658</v>
@@ -34559,7 +34559,7 @@
         <v>5.525376531748527</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0705367216818962</v>
+        <v>0.07053672168189619</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>332.7559639452622</v>
       </c>
       <c r="L12" t="n">
-        <v>138.6157555714078</v>
+        <v>324.8393568706178</v>
       </c>
       <c r="M12" t="n">
         <v>647.0155045122267</v>
@@ -35503,13 +35503,13 @@
         <v>680.0057497502852</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269925</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P12" t="n">
         <v>109.7875025528269</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.40517703305341</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584804</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452622</v>
+        <v>84.21201855861324</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748669</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622268</v>
+        <v>647.0155045122267</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793688</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269925</v>
       </c>
       <c r="P15" t="n">
-        <v>428.250271192764</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105732</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>509.4561008748669</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122267</v>
+        <v>229.4160469348641</v>
       </c>
       <c r="N18" t="n">
         <v>200.6633754067317</v>
@@ -35980,10 +35980,10 @@
         <v>554.9858674269925</v>
       </c>
       <c r="P18" t="n">
-        <v>220.7281013512508</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472405</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>190.5453525391274</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040859</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L20" t="n">
         <v>558.3972305517159</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730418</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513598</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O20" t="n">
-        <v>552.68808562331</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588828</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584803</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452622</v>
@@ -36208,19 +36208,19 @@
         <v>509.4561008748669</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122267</v>
+        <v>229.4160469348641</v>
       </c>
       <c r="N21" t="n">
-        <v>311.6039742051558</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269924</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528268</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472403</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36293,13 +36293,13 @@
         <v>207.9023887233375</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854532</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P22" t="n">
         <v>126.7147238369854</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.45284789935333</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K23" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L23" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M23" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N23" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O23" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P23" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R23" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K24" t="n">
-        <v>111.237145006623</v>
+        <v>372.0420484283918</v>
       </c>
       <c r="L24" t="n">
-        <v>196.3625145889911</v>
+        <v>567.2028598924502</v>
       </c>
       <c r="M24" t="n">
-        <v>661.769831618228</v>
+        <v>248.6981847970876</v>
       </c>
       <c r="N24" t="n">
-        <v>749.1770468512583</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O24" t="n">
-        <v>618.2640905645916</v>
+        <v>224.401771287862</v>
       </c>
       <c r="P24" t="n">
-        <v>160.5738553274465</v>
+        <v>479.0366239673836</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.91593914923664</v>
+        <v>266.9932268850857</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36524,19 +36524,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M25" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O25" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P25" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K26" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L26" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M26" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N26" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O26" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P26" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R26" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K27" t="n">
-        <v>375.7023820192015</v>
+        <v>111.2371450066229</v>
       </c>
       <c r="L27" t="n">
-        <v>295.7712423653198</v>
+        <v>196.362514588991</v>
       </c>
       <c r="M27" t="n">
-        <v>248.6981847970877</v>
+        <v>714.4032485470875</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8346725077048</v>
+        <v>749.1770468512582</v>
       </c>
       <c r="O27" t="n">
-        <v>618.2640905645916</v>
+        <v>439.5396382953232</v>
       </c>
       <c r="P27" t="n">
-        <v>479.0366239673837</v>
+        <v>160.5738553274464</v>
       </c>
       <c r="Q27" t="n">
-        <v>266.9932268850857</v>
+        <v>56.91593914923661</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36761,19 +36761,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M28" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O28" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P28" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K29" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L29" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M29" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N29" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O29" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P29" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q29" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R29" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K30" t="n">
-        <v>375.7023820192015</v>
+        <v>372.0420484283918</v>
       </c>
       <c r="L30" t="n">
-        <v>295.7712423653198</v>
+        <v>567.2028598924502</v>
       </c>
       <c r="M30" t="n">
-        <v>248.6981847970877</v>
+        <v>248.6981847970876</v>
       </c>
       <c r="N30" t="n">
-        <v>269.8346725077048</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O30" t="n">
-        <v>618.2640905645916</v>
+        <v>224.401771287862</v>
       </c>
       <c r="P30" t="n">
-        <v>479.0366239673837</v>
+        <v>479.0366239673836</v>
       </c>
       <c r="Q30" t="n">
         <v>266.9932268850857</v>
@@ -36998,19 +36998,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M31" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O31" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P31" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K32" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L32" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M32" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N32" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O32" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P32" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q32" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R32" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K33" t="n">
         <v>375.7023820192015</v>
       </c>
       <c r="L33" t="n">
-        <v>295.7712423653198</v>
+        <v>563.5425263016404</v>
       </c>
       <c r="M33" t="n">
-        <v>248.6981847970877</v>
+        <v>248.6981847970876</v>
       </c>
       <c r="N33" t="n">
-        <v>269.8346725077048</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O33" t="n">
-        <v>618.2640905645916</v>
+        <v>224.401771287862</v>
       </c>
       <c r="P33" t="n">
-        <v>479.0366239673837</v>
+        <v>479.0366239673836</v>
       </c>
       <c r="Q33" t="n">
         <v>266.9932268850857</v>
@@ -37235,19 +37235,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M34" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O34" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P34" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K35" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L35" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M35" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N35" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O35" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P35" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R35" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K36" t="n">
         <v>375.7023820192015</v>
       </c>
       <c r="L36" t="n">
-        <v>295.7712423653198</v>
+        <v>563.5425263016405</v>
       </c>
       <c r="M36" t="n">
-        <v>248.6981847970877</v>
+        <v>248.6981847970876</v>
       </c>
       <c r="N36" t="n">
-        <v>269.8346725077048</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O36" t="n">
-        <v>618.2640905645916</v>
+        <v>224.401771287862</v>
       </c>
       <c r="P36" t="n">
-        <v>479.0366239673837</v>
+        <v>479.0366239673836</v>
       </c>
       <c r="Q36" t="n">
         <v>266.9932268850857</v>
@@ -37472,19 +37472,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M37" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O37" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P37" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>232.7339139906328</v>
       </c>
       <c r="K38" t="n">
-        <v>470.7722557635397</v>
+        <v>470.7722557635396</v>
       </c>
       <c r="L38" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255937</v>
+        <v>725.3806999255936</v>
       </c>
       <c r="N38" t="n">
         <v>722.338322511742</v>
       </c>
       <c r="O38" t="n">
-        <v>636.4395162277353</v>
+        <v>636.4395162277352</v>
       </c>
       <c r="P38" t="n">
-        <v>505.1314703219314</v>
+        <v>505.1314703219313</v>
       </c>
       <c r="Q38" t="n">
-        <v>301.3309199580364</v>
+        <v>301.3309199580363</v>
       </c>
       <c r="R38" t="n">
-        <v>31.2243446681467</v>
+        <v>31.22434466814667</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.89401299800812</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K39" t="n">
         <v>375.7023820192015</v>
       </c>
       <c r="L39" t="n">
-        <v>295.7712423653198</v>
+        <v>196.362514588991</v>
       </c>
       <c r="M39" t="n">
-        <v>248.6981847970877</v>
+        <v>248.6981847970876</v>
       </c>
       <c r="N39" t="n">
-        <v>269.8346725077048</v>
+        <v>269.8346725077047</v>
       </c>
       <c r="O39" t="n">
-        <v>618.2640905645916</v>
+        <v>618.2640905645915</v>
       </c>
       <c r="P39" t="n">
-        <v>479.0366239673837</v>
+        <v>479.0366239673836</v>
       </c>
       <c r="Q39" t="n">
-        <v>266.9932268850857</v>
+        <v>240.3109193210056</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37709,19 +37709,19 @@
         <v>219.8496163246043</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2946589553297</v>
+        <v>242.2946589553296</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0229450577883</v>
+        <v>242.0229450577882</v>
       </c>
       <c r="O40" t="n">
-        <v>207.3692860323932</v>
+        <v>207.3692860323931</v>
       </c>
       <c r="P40" t="n">
         <v>153.6819834742177</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029646</v>
+        <v>22.12358065029645</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>232.7339139906329</v>
+        <v>232.7339139906328</v>
       </c>
       <c r="K41" t="n">
-        <v>470.7722557635398</v>
+        <v>470.7722557635397</v>
       </c>
       <c r="L41" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M41" t="n">
-        <v>725.3806999255938</v>
+        <v>725.3806999255937</v>
       </c>
       <c r="N41" t="n">
-        <v>722.3383225117421</v>
+        <v>722.338322511742</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4395162277355</v>
+        <v>636.4395162277353</v>
       </c>
       <c r="P41" t="n">
-        <v>505.1314703219315</v>
+        <v>505.1314703219314</v>
       </c>
       <c r="Q41" t="n">
         <v>301.3309199580364</v>
       </c>
       <c r="R41" t="n">
-        <v>31.22434466814604</v>
+        <v>31.2243446681467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.89401299800815</v>
+        <v>144.985048338417</v>
       </c>
       <c r="K42" t="n">
-        <v>111.237145006623</v>
+        <v>188.2570168875112</v>
       </c>
       <c r="L42" t="n">
         <v>567.2028598924503</v>
@@ -37873,13 +37873,13 @@
         <v>269.8346725077048</v>
       </c>
       <c r="O42" t="n">
-        <v>618.2640905645917</v>
+        <v>618.2640905645916</v>
       </c>
       <c r="P42" t="n">
         <v>479.0366239673837</v>
       </c>
       <c r="Q42" t="n">
-        <v>260.0268463705331</v>
+        <v>56.91593914923664</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37955,10 +37955,10 @@
         <v>207.3692860323932</v>
       </c>
       <c r="P43" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742177</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.12358065029647</v>
+        <v>22.12358065029646</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>232.7339139906329</v>
+        <v>232.7339139906328</v>
       </c>
       <c r="K44" t="n">
-        <v>470.7722557635398</v>
+        <v>470.7722557635397</v>
       </c>
       <c r="L44" t="n">
         <v>636.8392860901886</v>
       </c>
       <c r="M44" t="n">
-        <v>725.3806999255938</v>
+        <v>725.3806999255937</v>
       </c>
       <c r="N44" t="n">
-        <v>722.3383225117421</v>
+        <v>722.338322511742</v>
       </c>
       <c r="O44" t="n">
-        <v>636.4395162277355</v>
+        <v>636.4395162277344</v>
       </c>
       <c r="P44" t="n">
-        <v>505.1314703219315</v>
+        <v>505.1314703219314</v>
       </c>
       <c r="Q44" t="n">
         <v>301.3309199580364</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814673</v>
+        <v>31.2243446681467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>144.985048338417</v>
+        <v>18.89401299800812</v>
       </c>
       <c r="K45" t="n">
-        <v>111.237145006623</v>
+        <v>314.34805222792</v>
       </c>
       <c r="L45" t="n">
-        <v>196.3625145889911</v>
+        <v>567.2028598924503</v>
       </c>
       <c r="M45" t="n">
-        <v>714.4032485470876</v>
+        <v>248.6981847970877</v>
       </c>
       <c r="N45" t="n">
-        <v>749.1770468512584</v>
+        <v>269.8346725077048</v>
       </c>
       <c r="O45" t="n">
-        <v>224.4017712878621</v>
+        <v>618.2640905645916</v>
       </c>
       <c r="P45" t="n">
-        <v>165.6344345990576</v>
+        <v>479.0366239673837</v>
       </c>
       <c r="Q45" t="n">
-        <v>266.9932268850857</v>
+        <v>56.91593914923664</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38192,10 +38192,10 @@
         <v>207.3692860323932</v>
       </c>
       <c r="P46" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742177</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.12358065029647</v>
+        <v>22.12358065029646</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
